--- a/scrumPoker.xlsx
+++ b/scrumPoker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iut\LPro\ProjetDemoNixie\scrumPoker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iut\LPro\ProjetDemoNixie\Organisation\scrumPoker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F880D14-DE98-4F08-8AB2-8624F5C5BBB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C5C9E8-791D-412D-9974-1C36B74FF2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B682B239-C34E-4E34-8C61-676B4954AC58}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>A</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Faire le schémade branchement des LEDs un digit (une plaque de verre/un caractère)</t>
   </si>
   <si>
-    <t>Faire le schéma pour brancher le réseaux de LEDs à la carte</t>
-  </si>
-  <si>
     <t>Tâche</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
   </si>
   <si>
     <t>Score scrum total</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Concevoir le protocoles bluetoot</t>
+  </si>
+  <si>
+    <t>Faire les trames bluetooth</t>
+  </si>
+  <si>
+    <t>Faire le schéma de l'implémentation du µc</t>
   </si>
 </sst>
 </file>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +256,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEA3CACC-6787-451E-BC22-3E14FFEEB0E9}" name="Table1" displayName="Table1" ref="B2:E19" totalsRowShown="0">
-  <autoFilter ref="B2:E19" xr:uid="{849E0B24-DF33-46CB-AD50-FC0D0B124B80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEA3CACC-6787-451E-BC22-3E14FFEEB0E9}" name="Table1" displayName="Table1" ref="B2:E20" totalsRowShown="0">
+  <autoFilter ref="B2:E20" xr:uid="{849E0B24-DF33-46CB-AD50-FC0D0B124B80}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{446879B6-13BC-4885-8460-2ADF09BD7CBD}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{4922D826-CDF9-4362-B5AB-B780A534DDCD}" name="Tâche"/>
@@ -320,8 +332,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2783E043-852C-44EE-8937-72D5E16A1D3C}" name="Table3" displayName="Table3" ref="G2:H26" totalsRowShown="0">
-  <autoFilter ref="G2:H26" xr:uid="{090EBF9D-C203-4CB6-B4FF-13A72EABF30D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2783E043-852C-44EE-8937-72D5E16A1D3C}" name="Table3" displayName="Table3" ref="G2:H27" totalsRowShown="0">
+  <autoFilter ref="G2:H27" xr:uid="{090EBF9D-C203-4CB6-B4FF-13A72EABF30D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9144F6FE-5BC2-475A-858B-433318F009D9}" name="Tâches"/>
     <tableColumn id="2" xr3:uid="{D05D2D53-25D7-4933-88BF-3539AFBE58DB}" name="Scores scrum"/>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA377A60-32CB-42C0-AB87-45DED6B5AD6E}">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,29 +656,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -683,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -695,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -715,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -735,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -755,16 +767,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -775,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -795,7 +807,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -815,13 +827,13 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -832,14 +844,14 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="H11" s="3">
-        <f>H4+H5+H6+H7+H8+H9</f>
-        <v>29</v>
+        <f>H4+H5+H6+H8+H9+H7</f>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -850,15 +862,14 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -868,7 +879,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -888,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -908,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -921,17 +932,25 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
         <v>27</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15</f>
-        <v>84</v>
       </c>
       <c r="H17" s="3">
         <f>H13+H14+H15</f>
@@ -939,29 +958,33 @@
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+      <c r="E18">
+        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16</f>
+        <v>87</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E19">
-        <f>E17/3</f>
-        <v>28</v>
-      </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f>E18/3</f>
+        <v>29</v>
+      </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -969,7 +992,7 @@
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -977,31 +1000,40 @@
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="3" t="s">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <f>H19+H20+H21+H22+H23</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="3">
-        <f>H24+H17+H11</f>
-        <v>84</v>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="3">
+        <f>H25+H17+H11</f>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1045,7 @@
       <formula>"MOD(LIGNE() ;2)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G1 G2 G4:H9 G10 G11:H11 G13:H13 G12 G15:H15 G16 A27:XFD1048576 G19:H24 I1:XFD26 F2:F16 F17:H17 A21:F26 F19:F20 A2:A20 F18:G18 B2:E19">
+  <conditionalFormatting sqref="A1:G1 G2 G10 G11:H11 G13:H13 G15:H15 G16 G20:H25 F19:F20 A2:A20 B2:E15 B17:E20 A21:F1048576 I1:XFD1048576 G29:H1048576 F2:F17 G4:H6 G8:H9 H19 G12 G7 F18:G18 G17:H17">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>" =MOD(Row(),2)=1"</formula>
     </cfRule>
@@ -1024,7 +1056,7 @@
       <formula>"MOD(LIGNE() ;2)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E19">
+  <conditionalFormatting sqref="B2:E15 B17:E20">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>" =MOD(Row(),2)=1"</formula>
     </cfRule>
